--- a/Recalls-v0.xlsx
+++ b/Recalls-v0.xlsx
@@ -106,29 +106,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.11522172E13</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2007.0</v>
@@ -149,7 +126,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -172,7 +149,7 @@
         <v>0.0</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -195,7 +172,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -218,7 +195,7 @@
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -241,7 +218,7 @@
         <v>0.0</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -264,7 +241,7 @@
         <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -287,7 +264,7 @@
         <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -310,7 +287,7 @@
         <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -333,7 +310,7 @@
         <v>0.0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -356,7 +333,7 @@
         <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -379,7 +356,7 @@
         <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -399,7 +376,7 @@
         <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -425,7 +402,7 @@
         <v>0.0</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -448,7 +425,7 @@
         <v>0.0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -471,7 +448,7 @@
         <v>0.0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -494,7 +471,7 @@
         <v>0.0</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -517,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -540,7 +517,7 @@
         <v>0.0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -563,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -586,7 +563,7 @@
         <v>0.0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -609,7 +586,7 @@
         <v>0.0</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -629,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -655,7 +632,7 @@
         <v>0.0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -678,7 +655,7 @@
         <v>0.0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -701,7 +678,7 @@
         <v>0.0</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -724,7 +701,7 @@
         <v>0.0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -747,7 +724,7 @@
         <v>0.0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -770,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -793,7 +770,7 @@
         <v>0.0</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -816,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -839,7 +816,7 @@
         <v>0.0</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -862,7 +839,7 @@
         <v>0.0</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -885,7 +862,7 @@
         <v>0.0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -908,7 +885,7 @@
         <v>0.0</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -931,7 +908,7 @@
         <v>0.0</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -954,7 +931,7 @@
         <v>0.0</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -977,7 +954,7 @@
         <v>0.0</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -1000,7 +977,7 @@
         <v>0.0</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -1023,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -1043,7 +1020,7 @@
         <v>0.0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n">
         <v>0.0</v>
@@ -1063,13 +1040,13 @@
         <v>6.11743356E13</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1069,7 @@
         <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -1115,7 +1092,7 @@
         <v>0.0</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -1138,7 +1115,7 @@
         <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -1161,7 +1138,7 @@
         <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -1184,7 +1161,7 @@
         <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -1204,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="F49" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -1224,13 +1201,13 @@
         <v>6.11766684E13</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="51">
@@ -1253,7 +1230,7 @@
         <v>0.0</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -1273,7 +1250,7 @@
         <v>0.0</v>
       </c>
       <c r="F52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G52" t="n">
         <v>0.0</v>
@@ -1299,7 +1276,7 @@
         <v>0.0</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -1322,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -1345,7 +1322,7 @@
         <v>0.0</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -1368,7 +1345,7 @@
         <v>0.0</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -1391,7 +1368,7 @@
         <v>0.0</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -1414,7 +1391,7 @@
         <v>0.0</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -1437,7 +1414,7 @@
         <v>0.0</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1437,7 @@
         <v>0.0</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
@@ -1483,7 +1460,7 @@
         <v>0.0</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
@@ -1506,7 +1483,7 @@
         <v>0.0</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -1529,7 +1506,7 @@
         <v>0.0</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -1552,7 +1529,7 @@
         <v>0.0</v>
       </c>
       <c r="G64" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -1575,7 +1552,7 @@
         <v>0.0</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -1598,7 +1575,7 @@
         <v>0.0</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -1621,7 +1598,7 @@
         <v>0.0</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -1644,7 +1621,7 @@
         <v>0.0</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -1667,7 +1644,7 @@
         <v>0.0</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
@@ -1690,7 +1667,7 @@
         <v>0.0</v>
       </c>
       <c r="G70" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
@@ -1713,7 +1690,7 @@
         <v>0.0</v>
       </c>
       <c r="G71" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -1736,7 +1713,7 @@
         <v>0.0</v>
       </c>
       <c r="G72" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -1759,7 +1736,7 @@
         <v>0.0</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -1782,7 +1759,7 @@
         <v>0.0</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -1805,7 +1782,7 @@
         <v>0.0</v>
       </c>
       <c r="G75" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
@@ -1828,7 +1805,7 @@
         <v>0.0</v>
       </c>
       <c r="G76" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -1851,7 +1828,7 @@
         <v>0.0</v>
       </c>
       <c r="G77" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
@@ -1874,7 +1851,7 @@
         <v>0.0</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
@@ -1897,7 +1874,7 @@
         <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -1920,7 +1897,7 @@
         <v>0.0</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -1943,7 +1920,7 @@
         <v>0.0</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
@@ -1966,7 +1943,7 @@
         <v>0.0</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -1989,7 +1966,7 @@
         <v>0.0</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -2012,7 +1989,7 @@
         <v>0.0</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
@@ -2035,7 +2012,7 @@
         <v>0.0</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
@@ -2058,7 +2035,7 @@
         <v>0.0</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -2081,7 +2058,7 @@
         <v>0.0</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
@@ -2104,7 +2081,7 @@
         <v>0.0</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
@@ -2127,7 +2104,7 @@
         <v>0.0</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
@@ -2150,7 +2127,7 @@
         <v>0.0</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
@@ -2173,7 +2150,7 @@
         <v>0.0</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -2196,7 +2173,7 @@
         <v>0.0</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
@@ -2219,7 +2196,7 @@
         <v>0.0</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
@@ -2242,7 +2219,7 @@
         <v>0.0</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -2265,7 +2242,7 @@
         <v>0.0</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
@@ -2288,7 +2265,7 @@
         <v>0.0</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
@@ -2311,7 +2288,7 @@
         <v>0.0</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
@@ -2334,7 +2311,7 @@
         <v>0.0</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
@@ -2357,7 +2334,7 @@
         <v>0.0</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
@@ -2380,7 +2357,7 @@
         <v>0.0</v>
       </c>
       <c r="G100" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
@@ -2403,7 +2380,7 @@
         <v>0.0</v>
       </c>
       <c r="G101" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
@@ -2426,7 +2403,7 @@
         <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -2449,7 +2426,7 @@
         <v>0.0</v>
       </c>
       <c r="G103" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
@@ -2472,7 +2449,7 @@
         <v>0.0</v>
       </c>
       <c r="G104" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -2495,7 +2472,7 @@
         <v>0.0</v>
       </c>
       <c r="G105" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
@@ -2518,7 +2495,7 @@
         <v>0.0</v>
       </c>
       <c r="G106" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
@@ -2538,7 +2515,7 @@
         <v>0.0</v>
       </c>
       <c r="F107" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G107" t="n">
         <v>0.0</v>
@@ -2564,7 +2541,7 @@
         <v>0.0</v>
       </c>
       <c r="G108" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
@@ -2587,7 +2564,7 @@
         <v>0.0</v>
       </c>
       <c r="G109" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
@@ -2610,7 +2587,7 @@
         <v>0.0</v>
       </c>
       <c r="G110" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
@@ -2633,7 +2610,7 @@
         <v>0.0</v>
       </c>
       <c r="G111" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
@@ -2656,7 +2633,7 @@
         <v>0.0</v>
       </c>
       <c r="G112" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
@@ -2679,7 +2656,7 @@
         <v>0.0</v>
       </c>
       <c r="G113" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
@@ -2702,7 +2679,7 @@
         <v>0.0</v>
       </c>
       <c r="G114" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
@@ -2722,7 +2699,7 @@
         <v>0.0</v>
       </c>
       <c r="F115" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G115" t="n">
         <v>0.0</v>
@@ -2745,10 +2722,10 @@
         <v>0.0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G116" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
@@ -2771,7 +2748,7 @@
         <v>0.0</v>
       </c>
       <c r="G117" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
@@ -2794,7 +2771,7 @@
         <v>0.0</v>
       </c>
       <c r="G118" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
@@ -2817,7 +2794,7 @@
         <v>0.0</v>
       </c>
       <c r="G119" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="120">
@@ -2840,7 +2817,7 @@
         <v>0.0</v>
       </c>
       <c r="G120" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
@@ -2863,7 +2840,7 @@
         <v>0.0</v>
       </c>
       <c r="G121" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
@@ -2886,7 +2863,7 @@
         <v>0.0</v>
       </c>
       <c r="G122" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -2909,7 +2886,7 @@
         <v>0.0</v>
       </c>
       <c r="G123" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
@@ -2932,7 +2909,7 @@
         <v>0.0</v>
       </c>
       <c r="G124" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
@@ -2955,7 +2932,7 @@
         <v>0.0</v>
       </c>
       <c r="G125" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="126">
@@ -2978,7 +2955,7 @@
         <v>0.0</v>
       </c>
       <c r="G126" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="127">
@@ -3001,7 +2978,7 @@
         <v>0.0</v>
       </c>
       <c r="G127" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -3024,7 +3001,7 @@
         <v>0.0</v>
       </c>
       <c r="G128" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
@@ -3047,7 +3024,7 @@
         <v>0.0</v>
       </c>
       <c r="G129" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="130">
@@ -3067,7 +3044,7 @@
         <v>0.0</v>
       </c>
       <c r="F130" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G130" t="n">
         <v>0.0</v>
@@ -3090,10 +3067,10 @@
         <v>0.0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G131" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
@@ -3116,7 +3093,7 @@
         <v>0.0</v>
       </c>
       <c r="G132" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="133">
@@ -3139,7 +3116,7 @@
         <v>0.0</v>
       </c>
       <c r="G133" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134">
@@ -3159,7 +3136,7 @@
         <v>0.0</v>
       </c>
       <c r="F134" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G134" t="n">
         <v>0.0</v>
@@ -3185,7 +3162,7 @@
         <v>0.0</v>
       </c>
       <c r="G135" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
@@ -3208,7 +3185,7 @@
         <v>0.0</v>
       </c>
       <c r="G136" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
@@ -3231,7 +3208,7 @@
         <v>0.0</v>
       </c>
       <c r="G137" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
@@ -3254,7 +3231,7 @@
         <v>0.0</v>
       </c>
       <c r="G138" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="139">
@@ -3277,7 +3254,7 @@
         <v>0.0</v>
       </c>
       <c r="G139" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="140">
@@ -3300,7 +3277,7 @@
         <v>0.0</v>
       </c>
       <c r="G140" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
@@ -3323,7 +3300,7 @@
         <v>0.0</v>
       </c>
       <c r="G141" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
@@ -3346,7 +3323,7 @@
         <v>0.0</v>
       </c>
       <c r="G142" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
@@ -3369,7 +3346,7 @@
         <v>0.0</v>
       </c>
       <c r="G143" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
@@ -3389,7 +3366,7 @@
         <v>0.0</v>
       </c>
       <c r="F144" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G144" t="n">
         <v>0.0</v>
@@ -3415,7 +3392,7 @@
         <v>0.0</v>
       </c>
       <c r="G145" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="146">
@@ -3438,7 +3415,7 @@
         <v>0.0</v>
       </c>
       <c r="G146" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="147">
@@ -3458,7 +3435,7 @@
         <v>0.0</v>
       </c>
       <c r="F147" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G147" t="n">
         <v>0.0</v>
@@ -3478,13 +3455,13 @@
         <v>6.12178848E13</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G148" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="149">
@@ -3507,7 +3484,7 @@
         <v>0.0</v>
       </c>
       <c r="G149" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
@@ -3530,7 +3507,7 @@
         <v>0.0</v>
       </c>
       <c r="G150" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
@@ -3553,7 +3530,7 @@
         <v>0.0</v>
       </c>
       <c r="G151" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
@@ -3576,7 +3553,7 @@
         <v>0.0</v>
       </c>
       <c r="G152" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="153">
@@ -3599,7 +3576,7 @@
         <v>0.0</v>
       </c>
       <c r="G153" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
@@ -3619,7 +3596,7 @@
         <v>0.0</v>
       </c>
       <c r="F154" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G154" t="n">
         <v>0.0</v>
@@ -3639,13 +3616,13 @@
         <v>6.121944E13</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G155" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="156">
@@ -3668,7 +3645,7 @@
         <v>0.0</v>
       </c>
       <c r="G156" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
@@ -3691,7 +3668,7 @@
         <v>0.0</v>
       </c>
       <c r="G157" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -3714,7 +3691,7 @@
         <v>0.0</v>
       </c>
       <c r="G158" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="159">
@@ -3737,7 +3714,7 @@
         <v>0.0</v>
       </c>
       <c r="G159" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
@@ -3757,7 +3734,7 @@
         <v>0.0</v>
       </c>
       <c r="F160" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G160" t="n">
         <v>0.0</v>
@@ -3783,7 +3760,7 @@
         <v>0.0</v>
       </c>
       <c r="G161" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="162">
@@ -3806,7 +3783,7 @@
         <v>0.0</v>
       </c>
       <c r="G162" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
@@ -3826,7 +3803,7 @@
         <v>0.0</v>
       </c>
       <c r="F163" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G163" t="n">
         <v>0.0</v>
@@ -3852,7 +3829,7 @@
         <v>0.0</v>
       </c>
       <c r="G164" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
@@ -3875,7 +3852,7 @@
         <v>0.0</v>
       </c>
       <c r="G165" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="166">
@@ -3898,7 +3875,7 @@
         <v>0.0</v>
       </c>
       <c r="G166" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
@@ -3921,7 +3898,7 @@
         <v>0.0</v>
       </c>
       <c r="G167" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
@@ -3944,7 +3921,7 @@
         <v>0.0</v>
       </c>
       <c r="G168" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="169">
@@ -3967,7 +3944,7 @@
         <v>0.0</v>
       </c>
       <c r="G169" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
@@ -3990,7 +3967,7 @@
         <v>0.0</v>
       </c>
       <c r="G170" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="171">
@@ -4013,7 +3990,7 @@
         <v>0.0</v>
       </c>
       <c r="G171" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="172">
@@ -4036,7 +4013,7 @@
         <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -4059,7 +4036,7 @@
         <v>0.0</v>
       </c>
       <c r="G173" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="174">
@@ -4082,7 +4059,7 @@
         <v>0.0</v>
       </c>
       <c r="G174" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
@@ -4105,7 +4082,7 @@
         <v>0.0</v>
       </c>
       <c r="G175" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
@@ -4128,7 +4105,7 @@
         <v>0.0</v>
       </c>
       <c r="G176" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
@@ -4151,7 +4128,7 @@
         <v>0.0</v>
       </c>
       <c r="G177" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="178">
@@ -4174,7 +4151,7 @@
         <v>0.0</v>
       </c>
       <c r="G178" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
@@ -4197,7 +4174,7 @@
         <v>0.0</v>
       </c>
       <c r="G179" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
@@ -4220,7 +4197,7 @@
         <v>0.0</v>
       </c>
       <c r="G180" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="181">
@@ -4243,7 +4220,7 @@
         <v>0.0</v>
       </c>
       <c r="G181" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
@@ -4266,7 +4243,7 @@
         <v>0.0</v>
       </c>
       <c r="G182" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
@@ -4289,7 +4266,7 @@
         <v>0.0</v>
       </c>
       <c r="G183" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
@@ -4312,7 +4289,7 @@
         <v>0.0</v>
       </c>
       <c r="G184" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
@@ -4335,7 +4312,7 @@
         <v>0.0</v>
       </c>
       <c r="G185" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
@@ -4358,7 +4335,7 @@
         <v>0.0</v>
       </c>
       <c r="G186" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="187">
@@ -4381,7 +4358,7 @@
         <v>0.0</v>
       </c>
       <c r="G187" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -4404,7 +4381,7 @@
         <v>0.0</v>
       </c>
       <c r="G188" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="189">
@@ -4427,7 +4404,7 @@
         <v>0.0</v>
       </c>
       <c r="G189" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
@@ -4450,7 +4427,7 @@
         <v>0.0</v>
       </c>
       <c r="G190" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
@@ -4470,7 +4447,7 @@
         <v>0.0</v>
       </c>
       <c r="F191" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G191" t="n">
         <v>0.0</v>
@@ -4496,7 +4473,7 @@
         <v>0.0</v>
       </c>
       <c r="G192" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
@@ -4519,7 +4496,7 @@
         <v>0.0</v>
       </c>
       <c r="G193" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
@@ -4542,7 +4519,7 @@
         <v>0.0</v>
       </c>
       <c r="G194" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
@@ -4565,7 +4542,7 @@
         <v>0.0</v>
       </c>
       <c r="G195" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
@@ -4588,7 +4565,7 @@
         <v>0.0</v>
       </c>
       <c r="G196" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
@@ -4611,7 +4588,7 @@
         <v>0.0</v>
       </c>
       <c r="G197" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
@@ -4634,7 +4611,7 @@
         <v>0.0</v>
       </c>
       <c r="G198" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="199">
@@ -4657,7 +4634,7 @@
         <v>0.0</v>
       </c>
       <c r="G199" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
@@ -4680,7 +4657,7 @@
         <v>0.0</v>
       </c>
       <c r="G200" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
@@ -4703,7 +4680,7 @@
         <v>0.0</v>
       </c>
       <c r="G201" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
@@ -4726,7 +4703,7 @@
         <v>0.0</v>
       </c>
       <c r="G202" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="203">
@@ -4749,7 +4726,7 @@
         <v>0.0</v>
       </c>
       <c r="G203" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
@@ -4772,7 +4749,7 @@
         <v>0.0</v>
       </c>
       <c r="G204" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="205">
@@ -4795,7 +4772,7 @@
         <v>0.0</v>
       </c>
       <c r="G205" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
@@ -4818,7 +4795,7 @@
         <v>0.0</v>
       </c>
       <c r="G206" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
@@ -4841,7 +4818,7 @@
         <v>0.0</v>
       </c>
       <c r="G207" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="208">
@@ -4864,7 +4841,7 @@
         <v>0.0</v>
       </c>
       <c r="G208" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="209">
@@ -4887,7 +4864,7 @@
         <v>0.0</v>
       </c>
       <c r="G209" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="210">
@@ -4907,7 +4884,7 @@
         <v>0.0</v>
       </c>
       <c r="F210" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="G210" t="n">
         <v>0.0</v>
@@ -4933,7 +4910,7 @@
         <v>0.0</v>
       </c>
       <c r="G211" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="212">
@@ -4956,7 +4933,7 @@
         <v>0.0</v>
       </c>
       <c r="G212" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="213">
@@ -4979,7 +4956,7 @@
         <v>0.0</v>
       </c>
       <c r="G213" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
@@ -5002,7 +4979,7 @@
         <v>0.0</v>
       </c>
       <c r="G214" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -5025,7 +5002,7 @@
         <v>0.0</v>
       </c>
       <c r="G215" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="216">
@@ -5048,7 +5025,7 @@
         <v>0.0</v>
       </c>
       <c r="G216" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="217">
@@ -5071,7 +5048,7 @@
         <v>0.0</v>
       </c>
       <c r="G217" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="218">
@@ -5094,7 +5071,7 @@
         <v>0.0</v>
       </c>
       <c r="G218" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="219">
@@ -5117,7 +5094,7 @@
         <v>0.0</v>
       </c>
       <c r="G219" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
@@ -5140,7 +5117,7 @@
         <v>0.0</v>
       </c>
       <c r="G220" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
@@ -5163,7 +5140,7 @@
         <v>0.0</v>
       </c>
       <c r="G221" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="222">
@@ -5186,7 +5163,7 @@
         <v>0.0</v>
       </c>
       <c r="G222" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="223">
@@ -5209,7 +5186,7 @@
         <v>0.0</v>
       </c>
       <c r="G223" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="224">
@@ -5232,7 +5209,7 @@
         <v>0.0</v>
       </c>
       <c r="G224" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="225">
@@ -5255,7 +5232,7 @@
         <v>0.0</v>
       </c>
       <c r="G225" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="226">
@@ -5278,7 +5255,7 @@
         <v>0.0</v>
       </c>
       <c r="G226" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="227">
@@ -5301,7 +5278,7 @@
         <v>0.0</v>
       </c>
       <c r="G227" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="228">
@@ -5324,7 +5301,7 @@
         <v>0.0</v>
       </c>
       <c r="G228" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="229">
@@ -5344,7 +5321,7 @@
         <v>0.0</v>
       </c>
       <c r="F229" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G229" t="n">
         <v>0.0</v>
@@ -5370,7 +5347,7 @@
         <v>0.0</v>
       </c>
       <c r="G230" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="231">
@@ -5393,7 +5370,7 @@
         <v>0.0</v>
       </c>
       <c r="G231" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="232">
@@ -5416,7 +5393,7 @@
         <v>0.0</v>
       </c>
       <c r="G232" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="233">
@@ -5436,7 +5413,7 @@
         <v>0.0</v>
       </c>
       <c r="F233" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G233" t="n">
         <v>0.0</v>
@@ -5462,7 +5439,7 @@
         <v>0.0</v>
       </c>
       <c r="G234" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="235">
@@ -5485,7 +5462,7 @@
         <v>0.0</v>
       </c>
       <c r="G235" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="236">
@@ -5505,7 +5482,7 @@
         <v>0.0</v>
       </c>
       <c r="F236" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G236" t="n">
         <v>0.0</v>
@@ -5531,7 +5508,7 @@
         <v>0.0</v>
       </c>
       <c r="G237" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="238">
@@ -5554,7 +5531,7 @@
         <v>0.0</v>
       </c>
       <c r="G238" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="239">
@@ -5577,7 +5554,7 @@
         <v>0.0</v>
       </c>
       <c r="G239" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="240">
@@ -5600,7 +5577,7 @@
         <v>0.0</v>
       </c>
       <c r="G240" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="241">
@@ -5623,7 +5600,7 @@
         <v>0.0</v>
       </c>
       <c r="G241" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="242">
@@ -5646,7 +5623,7 @@
         <v>0.0</v>
       </c>
       <c r="G242" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="243">
@@ -5669,7 +5646,7 @@
         <v>0.0</v>
       </c>
       <c r="G243" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="244">
@@ -5692,7 +5669,7 @@
         <v>0.0</v>
       </c>
       <c r="G244" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
@@ -5715,7 +5692,7 @@
         <v>0.0</v>
       </c>
       <c r="G245" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="246">
@@ -5735,7 +5712,7 @@
         <v>0.0</v>
       </c>
       <c r="F246" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G246" t="n">
         <v>0.0</v>
@@ -5758,7 +5735,7 @@
         <v>0.0</v>
       </c>
       <c r="F247" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G247" t="n">
         <v>0.0</v>
@@ -5784,7 +5761,7 @@
         <v>0.0</v>
       </c>
       <c r="G248" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="249">
@@ -5807,7 +5784,7 @@
         <v>0.0</v>
       </c>
       <c r="G249" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="250">
@@ -5827,7 +5804,7 @@
         <v>0.0</v>
       </c>
       <c r="F250" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G250" t="n">
         <v>0.0</v>
@@ -5850,10 +5827,10 @@
         <v>0.0</v>
       </c>
       <c r="F251" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G251" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
@@ -5876,7 +5853,7 @@
         <v>0.0</v>
       </c>
       <c r="G252" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="253">
@@ -5899,7 +5876,7 @@
         <v>0.0</v>
       </c>
       <c r="G253" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
@@ -5922,7 +5899,7 @@
         <v>0.0</v>
       </c>
       <c r="G254" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -5942,7 +5919,7 @@
         <v>0.0</v>
       </c>
       <c r="F255" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G255" t="n">
         <v>0.0</v>
@@ -5968,7 +5945,7 @@
         <v>0.0</v>
       </c>
       <c r="G256" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="257">
@@ -5991,7 +5968,7 @@
         <v>0.0</v>
       </c>
       <c r="G257" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="258">
@@ -6014,7 +5991,7 @@
         <v>0.0</v>
       </c>
       <c r="G258" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="259">
@@ -6037,7 +6014,7 @@
         <v>0.0</v>
       </c>
       <c r="G259" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="260">
@@ -6060,7 +6037,7 @@
         <v>0.0</v>
       </c>
       <c r="G260" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="261">
@@ -6083,7 +6060,7 @@
         <v>0.0</v>
       </c>
       <c r="G261" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="262">
@@ -6106,7 +6083,7 @@
         <v>0.0</v>
       </c>
       <c r="G262" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="263">
@@ -6129,7 +6106,7 @@
         <v>0.0</v>
       </c>
       <c r="G263" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="264">
@@ -6149,7 +6126,7 @@
         <v>0.0</v>
       </c>
       <c r="F264" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G264" t="n">
         <v>0.0</v>
@@ -6172,10 +6149,10 @@
         <v>0.0</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G265" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="266">
@@ -6198,7 +6175,7 @@
         <v>0.0</v>
       </c>
       <c r="G266" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="267">
@@ -6221,7 +6198,7 @@
         <v>0.0</v>
       </c>
       <c r="G267" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="268">
@@ -6241,7 +6218,7 @@
         <v>0.0</v>
       </c>
       <c r="F268" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G268" t="n">
         <v>0.0</v>
@@ -6267,7 +6244,7 @@
         <v>0.0</v>
       </c>
       <c r="G269" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="270">
@@ -6287,7 +6264,7 @@
         <v>0.0</v>
       </c>
       <c r="F270" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="G270" t="n">
         <v>0.0</v>
@@ -6310,7 +6287,7 @@
         <v>0.0</v>
       </c>
       <c r="F271" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G271" t="n">
         <v>0.0</v>
@@ -6336,7 +6313,7 @@
         <v>0.0</v>
       </c>
       <c r="G272" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
@@ -6359,7 +6336,7 @@
         <v>0.0</v>
       </c>
       <c r="G273" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="274">
@@ -6376,10 +6353,10 @@
         <v>6.12572832E13</v>
       </c>
       <c r="E274" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F274" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="G274" t="n">
         <v>0.0</v>
@@ -6399,13 +6376,13 @@
         <v>6.1257888E13</v>
       </c>
       <c r="E275" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G275" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="276">
@@ -6425,7 +6402,7 @@
         <v>0.0</v>
       </c>
       <c r="F276" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="G276" t="n">
         <v>0.0</v>
@@ -6451,7 +6428,7 @@
         <v>0.0</v>
       </c>
       <c r="G277" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="278">
@@ -6474,7 +6451,7 @@
         <v>0.0</v>
       </c>
       <c r="G278" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="279">
@@ -6497,7 +6474,7 @@
         <v>0.0</v>
       </c>
       <c r="G279" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="280">
@@ -6520,7 +6497,7 @@
         <v>0.0</v>
       </c>
       <c r="G280" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="281">
@@ -6543,7 +6520,7 @@
         <v>0.0</v>
       </c>
       <c r="G281" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="282">
@@ -6566,7 +6543,7 @@
         <v>0.0</v>
       </c>
       <c r="G282" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="283">
@@ -6586,7 +6563,7 @@
         <v>0.0</v>
       </c>
       <c r="F283" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G283" t="n">
         <v>0.0</v>
@@ -6612,7 +6589,7 @@
         <v>0.0</v>
       </c>
       <c r="G284" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="285">
@@ -6635,7 +6612,7 @@
         <v>0.0</v>
       </c>
       <c r="G285" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="286">
@@ -6655,7 +6632,7 @@
         <v>0.0</v>
       </c>
       <c r="F286" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G286" t="n">
         <v>0.0</v>
@@ -6681,7 +6658,7 @@
         <v>0.0</v>
       </c>
       <c r="G287" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="288">
@@ -6704,7 +6681,7 @@
         <v>0.0</v>
       </c>
       <c r="G288" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="289">
@@ -6724,7 +6701,7 @@
         <v>0.0</v>
       </c>
       <c r="F289" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="G289" t="n">
         <v>0.0</v>
@@ -6744,13 +6721,13 @@
         <v>6.1263846E13</v>
       </c>
       <c r="E290" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G290" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="291">
@@ -6773,7 +6750,7 @@
         <v>0.0</v>
       </c>
       <c r="G291" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="292">
@@ -6796,7 +6773,7 @@
         <v>0.0</v>
       </c>
       <c r="G292" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="293">
@@ -6819,7 +6796,7 @@
         <v>0.0</v>
       </c>
       <c r="G293" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="294">
@@ -6842,7 +6819,7 @@
         <v>0.0</v>
       </c>
       <c r="G294" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="295">
@@ -6865,7 +6842,7 @@
         <v>0.0</v>
       </c>
       <c r="G295" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="296">
@@ -6888,7 +6865,7 @@
         <v>0.0</v>
       </c>
       <c r="G296" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="297">
@@ -6911,7 +6888,7 @@
         <v>0.0</v>
       </c>
       <c r="G297" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="298">
@@ -6934,7 +6911,7 @@
         <v>0.0</v>
       </c>
       <c r="G298" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="299">
@@ -6957,7 +6934,7 @@
         <v>0.0</v>
       </c>
       <c r="G299" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="300">
@@ -6980,7 +6957,7 @@
         <v>0.0</v>
       </c>
       <c r="G300" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="301">
@@ -7000,7 +6977,7 @@
         <v>0.0</v>
       </c>
       <c r="F301" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G301" t="n">
         <v>0.0</v>
@@ -7020,13 +6997,13 @@
         <v>6.12670428E13</v>
       </c>
       <c r="E302" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F302" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G302" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="303">
@@ -7049,7 +7026,7 @@
         <v>0.0</v>
       </c>
       <c r="G303" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="304">
@@ -7072,7 +7049,7 @@
         <v>0.0</v>
       </c>
       <c r="G304" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="305">
@@ -7095,7 +7072,7 @@
         <v>0.0</v>
       </c>
       <c r="G305" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="306">
@@ -7118,7 +7095,7 @@
         <v>0.0</v>
       </c>
       <c r="G306" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="307">
@@ -7138,7 +7115,7 @@
         <v>0.0</v>
       </c>
       <c r="F307" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G307" t="n">
         <v>0.0</v>
@@ -7164,7 +7141,7 @@
         <v>0.0</v>
       </c>
       <c r="G308" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="309">
@@ -7187,7 +7164,7 @@
         <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -7207,7 +7184,7 @@
         <v>0.0</v>
       </c>
       <c r="F310" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="G310" t="n">
         <v>0.0</v>
@@ -7233,7 +7210,7 @@
         <v>0.0</v>
       </c>
       <c r="G311" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="312">
@@ -7256,7 +7233,7 @@
         <v>0.0</v>
       </c>
       <c r="G312" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="313">
@@ -7279,7 +7256,7 @@
         <v>0.0</v>
       </c>
       <c r="G313" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="314">
@@ -7302,7 +7279,7 @@
         <v>0.0</v>
       </c>
       <c r="G314" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="315">
@@ -7325,7 +7302,7 @@
         <v>0.0</v>
       </c>
       <c r="G315" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="316">
@@ -7348,7 +7325,7 @@
         <v>0.0</v>
       </c>
       <c r="G316" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="317">
@@ -7371,7 +7348,7 @@
         <v>0.0</v>
       </c>
       <c r="G317" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="318">
@@ -7394,7 +7371,7 @@
         <v>0.0</v>
       </c>
       <c r="G318" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="319">
@@ -7417,7 +7394,7 @@
         <v>0.0</v>
       </c>
       <c r="G319" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="320">
@@ -7440,7 +7417,7 @@
         <v>0.0</v>
       </c>
       <c r="G320" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="321">
@@ -7463,7 +7440,7 @@
         <v>0.0</v>
       </c>
       <c r="G321" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="322">
@@ -7486,7 +7463,7 @@
         <v>0.0</v>
       </c>
       <c r="G322" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="323">
@@ -7509,7 +7486,7 @@
         <v>0.0</v>
       </c>
       <c r="G323" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="324">
@@ -7532,7 +7509,7 @@
         <v>0.0</v>
       </c>
       <c r="G324" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="325">
@@ -7552,7 +7529,7 @@
         <v>0.0</v>
       </c>
       <c r="F325" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G325" t="n">
         <v>0.0</v>
@@ -7575,7 +7552,7 @@
         <v>0.0</v>
       </c>
       <c r="F326" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G326" t="n">
         <v>0.0</v>
@@ -7601,7 +7578,7 @@
         <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -7624,7 +7601,7 @@
         <v>0.0</v>
       </c>
       <c r="G328" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="329">
@@ -7647,7 +7624,7 @@
         <v>0.0</v>
       </c>
       <c r="G329" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="330">
@@ -7670,7 +7647,7 @@
         <v>0.0</v>
       </c>
       <c r="G330" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="331">
@@ -7693,7 +7670,7 @@
         <v>0.0</v>
       </c>
       <c r="G331" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="332">
@@ -7716,7 +7693,7 @@
         <v>0.0</v>
       </c>
       <c r="G332" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="333">
@@ -7739,7 +7716,7 @@
         <v>0.0</v>
       </c>
       <c r="G333" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="334">
@@ -7762,7 +7739,7 @@
         <v>0.0</v>
       </c>
       <c r="G334" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="335">
@@ -7785,7 +7762,7 @@
         <v>0.0</v>
       </c>
       <c r="G335" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="336">
@@ -7808,7 +7785,7 @@
         <v>0.0</v>
       </c>
       <c r="G336" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="337">
@@ -7831,7 +7808,7 @@
         <v>0.0</v>
       </c>
       <c r="G337" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="338">
@@ -7854,7 +7831,7 @@
         <v>0.0</v>
       </c>
       <c r="G338" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="339">
@@ -7877,7 +7854,7 @@
         <v>0.0</v>
       </c>
       <c r="G339" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="340">
@@ -7900,7 +7877,7 @@
         <v>0.0</v>
       </c>
       <c r="G340" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="341">
@@ -7923,7 +7900,7 @@
         <v>0.0</v>
       </c>
       <c r="G341" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="342">
@@ -7943,7 +7920,7 @@
         <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
         <v>0.0</v>
@@ -7969,7 +7946,7 @@
         <v>0.0</v>
       </c>
       <c r="G343" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="344">
@@ -7992,7 +7969,7 @@
         <v>0.0</v>
       </c>
       <c r="G344" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="345">
@@ -8012,7 +7989,7 @@
         <v>0.0</v>
       </c>
       <c r="F345" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G345" t="n">
         <v>0.0</v>
@@ -8035,7 +8012,7 @@
         <v>0.0</v>
       </c>
       <c r="F346" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G346" t="n">
         <v>0.0</v>
@@ -8061,7 +8038,7 @@
         <v>0.0</v>
       </c>
       <c r="G347" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="348">
@@ -8084,7 +8061,7 @@
         <v>0.0</v>
       </c>
       <c r="G348" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="349">
@@ -8107,7 +8084,7 @@
         <v>0.0</v>
       </c>
       <c r="G349" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="350">
@@ -8130,7 +8107,7 @@
         <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -8153,7 +8130,7 @@
         <v>0.0</v>
       </c>
       <c r="G351" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="352">
@@ -8176,7 +8153,7 @@
         <v>0.0</v>
       </c>
       <c r="G352" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="353">
@@ -8196,7 +8173,7 @@
         <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
         <v>0.0</v>
@@ -8222,7 +8199,7 @@
         <v>0.0</v>
       </c>
       <c r="G354" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="355">
@@ -8245,7 +8222,7 @@
         <v>0.0</v>
       </c>
       <c r="G355" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="356">
@@ -8268,7 +8245,7 @@
         <v>0.0</v>
       </c>
       <c r="G356" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="357">
@@ -8291,7 +8268,7 @@
         <v>0.0</v>
       </c>
       <c r="G357" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="358">
@@ -8314,7 +8291,7 @@
         <v>0.0</v>
       </c>
       <c r="G358" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="359">
@@ -8337,7 +8314,7 @@
         <v>0.0</v>
       </c>
       <c r="G359" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="360">
@@ -8360,7 +8337,7 @@
         <v>0.0</v>
       </c>
       <c r="G360" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="361">
@@ -8380,7 +8357,7 @@
         <v>0.0</v>
       </c>
       <c r="F361" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G361" t="n">
         <v>0.0</v>
@@ -8403,10 +8380,10 @@
         <v>0.0</v>
       </c>
       <c r="F362" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G362" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="363">
@@ -8429,7 +8406,7 @@
         <v>0.0</v>
       </c>
       <c r="G363" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="364">
@@ -8452,7 +8429,7 @@
         <v>0.0</v>
       </c>
       <c r="G364" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="365">
@@ -8475,7 +8452,7 @@
         <v>0.0</v>
       </c>
       <c r="G365" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="366">
@@ -8498,7 +8475,7 @@
         <v>0.0</v>
       </c>
       <c r="G366" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="367">
@@ -8521,7 +8498,7 @@
         <v>0.0</v>
       </c>
       <c r="G367" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="368">
@@ -8544,7 +8521,7 @@
         <v>0.0</v>
       </c>
       <c r="G368" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="369">
@@ -8564,7 +8541,7 @@
         <v>0.0</v>
       </c>
       <c r="F369" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G369" t="n">
         <v>0.0</v>
@@ -8584,13 +8561,13 @@
         <v>6.1287696E13</v>
       </c>
       <c r="E370" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F370" t="n">
         <v>1.0</v>
       </c>
       <c r="G370" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="371">
@@ -8613,7 +8590,7 @@
         <v>0.0</v>
       </c>
       <c r="G371" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="372">
@@ -8636,7 +8613,7 @@
         <v>0.0</v>
       </c>
       <c r="G372" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="373">
@@ -8659,7 +8636,7 @@
         <v>0.0</v>
       </c>
       <c r="G373" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="374">
@@ -8682,7 +8659,7 @@
         <v>0.0</v>
       </c>
       <c r="G374" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="375">
@@ -8705,7 +8682,7 @@
         <v>0.0</v>
       </c>
       <c r="G375" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="376">
@@ -8728,7 +8705,7 @@
         <v>0.0</v>
       </c>
       <c r="G376" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="377">
@@ -8751,7 +8728,7 @@
         <v>0.0</v>
       </c>
       <c r="G377" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="378">
@@ -8774,7 +8751,7 @@
         <v>0.0</v>
       </c>
       <c r="G378" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="379">
@@ -8797,7 +8774,7 @@
         <v>0.0</v>
       </c>
       <c r="G379" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="380">
@@ -8820,7 +8797,7 @@
         <v>0.0</v>
       </c>
       <c r="G380" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="381">
@@ -8843,7 +8820,7 @@
         <v>0.0</v>
       </c>
       <c r="G381" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="382">
@@ -8866,7 +8843,7 @@
         <v>0.0</v>
       </c>
       <c r="G382" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="383">
@@ -8889,7 +8866,7 @@
         <v>0.0</v>
       </c>
       <c r="G383" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="384">
@@ -8912,7 +8889,7 @@
         <v>0.0</v>
       </c>
       <c r="G384" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="385">
@@ -8935,7 +8912,7 @@
         <v>0.0</v>
       </c>
       <c r="G385" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="386">
@@ -8958,7 +8935,7 @@
         <v>0.0</v>
       </c>
       <c r="G386" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="387">
@@ -8981,7 +8958,7 @@
         <v>0.0</v>
       </c>
       <c r="G387" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="388">
@@ -9004,7 +8981,7 @@
         <v>0.0</v>
       </c>
       <c r="G388" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="389">
@@ -9027,7 +9004,7 @@
         <v>0.0</v>
       </c>
       <c r="G389" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="390">
@@ -9050,7 +9027,7 @@
         <v>0.0</v>
       </c>
       <c r="G390" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="391">
@@ -9073,7 +9050,7 @@
         <v>0.0</v>
       </c>
       <c r="G391" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="392">
@@ -9093,7 +9070,7 @@
         <v>0.0</v>
       </c>
       <c r="F392" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G392" t="n">
         <v>0.0</v>
@@ -9119,7 +9096,7 @@
         <v>0.0</v>
       </c>
       <c r="G393" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="394">
@@ -9142,7 +9119,7 @@
         <v>0.0</v>
       </c>
       <c r="G394" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="395">
@@ -9165,7 +9142,7 @@
         <v>0.0</v>
       </c>
       <c r="G395" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="396">
@@ -9188,7 +9165,7 @@
         <v>0.0</v>
       </c>
       <c r="G396" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="397">
@@ -9211,7 +9188,7 @@
         <v>0.0</v>
       </c>
       <c r="G397" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="398">
@@ -9231,7 +9208,7 @@
         <v>0.0</v>
       </c>
       <c r="F398" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G398" t="n">
         <v>0.0</v>
@@ -9257,7 +9234,7 @@
         <v>0.0</v>
       </c>
       <c r="G399" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="400">
@@ -9280,7 +9257,7 @@
         <v>0.0</v>
       </c>
       <c r="G400" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="401">
@@ -9303,7 +9280,7 @@
         <v>0.0</v>
       </c>
       <c r="G401" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="402">
@@ -9326,7 +9303,7 @@
         <v>0.0</v>
       </c>
       <c r="G402" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="403">
@@ -9349,7 +9326,7 @@
         <v>0.0</v>
       </c>
       <c r="G403" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="404">
@@ -9369,7 +9346,7 @@
         <v>0.0</v>
       </c>
       <c r="F404" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G404" t="n">
         <v>0.0</v>
@@ -9392,10 +9369,10 @@
         <v>0.0</v>
       </c>
       <c r="F405" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G405" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="406">
@@ -9418,7 +9395,7 @@
         <v>0.0</v>
       </c>
       <c r="G406" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="407">
@@ -9438,7 +9415,7 @@
         <v>0.0</v>
       </c>
       <c r="F407" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G407" t="n">
         <v>0.0</v>
@@ -9464,7 +9441,7 @@
         <v>0.0</v>
       </c>
       <c r="G408" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="409">
@@ -9487,7 +9464,7 @@
         <v>0.0</v>
       </c>
       <c r="G409" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="410">
@@ -9510,7 +9487,7 @@
         <v>0.0</v>
       </c>
       <c r="G410" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="411">
@@ -9530,7 +9507,7 @@
         <v>0.0</v>
       </c>
       <c r="F411" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G411" t="n">
         <v>0.0</v>
@@ -9550,13 +9527,13 @@
         <v>6.12986652E13</v>
       </c>
       <c r="E412" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F412" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G412" t="n">
-        <v>-1.0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="413">
@@ -9579,7 +9556,7 @@
         <v>0.0</v>
       </c>
       <c r="G413" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="414">
@@ -9602,7 +9579,7 @@
         <v>0.0</v>
       </c>
       <c r="G414" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="415">
@@ -9625,7 +9602,7 @@
         <v>0.0</v>
       </c>
       <c r="G415" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="416">
@@ -9648,7 +9625,7 @@
         <v>0.0</v>
       </c>
       <c r="G416" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="417">
@@ -9671,7 +9648,7 @@
         <v>0.0</v>
       </c>
       <c r="G417" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="418">
@@ -9694,7 +9671,7 @@
         <v>0.0</v>
       </c>
       <c r="G418" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="419">
@@ -9717,7 +9694,7 @@
         <v>0.0</v>
       </c>
       <c r="G419" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="420">
@@ -9740,7 +9717,7 @@
         <v>0.0</v>
       </c>
       <c r="G420" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -9763,7 +9740,7 @@
         <v>0.0</v>
       </c>
       <c r="G421" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="422">
@@ -9786,7 +9763,7 @@
         <v>0.0</v>
       </c>
       <c r="G422" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="423">
@@ -9806,7 +9783,7 @@
         <v>0.0</v>
       </c>
       <c r="F423" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G423" t="n">
         <v>0.0</v>
@@ -9855,7 +9832,7 @@
         <v>0.0</v>
       </c>
       <c r="G425" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="426">
@@ -9878,7 +9855,7 @@
         <v>0.0</v>
       </c>
       <c r="G426" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="427">
@@ -9901,7 +9878,7 @@
         <v>0.0</v>
       </c>
       <c r="G427" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="428">
@@ -9924,7 +9901,7 @@
         <v>0.0</v>
       </c>
       <c r="G428" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="429">
@@ -9947,7 +9924,7 @@
         <v>0.0</v>
       </c>
       <c r="G429" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="430">
@@ -9970,7 +9947,7 @@
         <v>0.0</v>
       </c>
       <c r="G430" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="431">
@@ -9993,7 +9970,7 @@
         <v>0.0</v>
       </c>
       <c r="G431" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="432">
@@ -10016,7 +9993,7 @@
         <v>0.0</v>
       </c>
       <c r="G432" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="433">
@@ -10039,7 +10016,7 @@
         <v>0.0</v>
       </c>
       <c r="G433" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="434">
@@ -10062,7 +10039,7 @@
         <v>0.0</v>
       </c>
       <c r="G434" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="435">
@@ -10085,7 +10062,7 @@
         <v>0.0</v>
       </c>
       <c r="G435" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="436">
@@ -10105,7 +10082,7 @@
         <v>0.0</v>
       </c>
       <c r="F436" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G436" t="n">
         <v>0.0</v>
@@ -10125,13 +10102,13 @@
         <v>6.13062684E13</v>
       </c>
       <c r="E437" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F437" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G437" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="438">
@@ -10154,7 +10131,7 @@
         <v>0.0</v>
       </c>
       <c r="G438" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="439">
@@ -10177,7 +10154,7 @@
         <v>0.0</v>
       </c>
       <c r="G439" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="440">
@@ -10200,7 +10177,7 @@
         <v>0.0</v>
       </c>
       <c r="G440" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="441">
@@ -10223,7 +10200,7 @@
         <v>0.0</v>
       </c>
       <c r="G441" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="442">
@@ -10246,7 +10223,7 @@
         <v>0.0</v>
       </c>
       <c r="G442" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="443">
@@ -10266,7 +10243,7 @@
         <v>0.0</v>
       </c>
       <c r="F443" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G443" t="n">
         <v>0.0</v>
@@ -10286,13 +10263,13 @@
         <v>6.13073916E13</v>
       </c>
       <c r="E444" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F444" t="n">
         <v>1.0</v>
       </c>
       <c r="G444" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="445">
@@ -10315,7 +10292,7 @@
         <v>0.0</v>
       </c>
       <c r="G445" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="446">
@@ -10338,7 +10315,7 @@
         <v>0.0</v>
       </c>
       <c r="G446" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="447">
@@ -10358,7 +10335,7 @@
         <v>0.0</v>
       </c>
       <c r="F447" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G447" t="n">
         <v>0.0</v>
@@ -10384,7 +10361,7 @@
         <v>0.0</v>
       </c>
       <c r="G448" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="449">
@@ -10407,7 +10384,7 @@
         <v>0.0</v>
       </c>
       <c r="G449" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="450">
@@ -10430,7 +10407,7 @@
         <v>0.0</v>
       </c>
       <c r="G450" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="451">
@@ -10453,7 +10430,7 @@
         <v>0.0</v>
       </c>
       <c r="G451" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="452">
@@ -10476,7 +10453,7 @@
         <v>0.0</v>
       </c>
       <c r="G452" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="453">
@@ -10499,7 +10476,7 @@
         <v>0.0</v>
       </c>
       <c r="G453" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="454">
@@ -10522,7 +10499,7 @@
         <v>0.0</v>
       </c>
       <c r="G454" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="455">
@@ -10545,7 +10522,7 @@
         <v>0.0</v>
       </c>
       <c r="G455" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="456">
@@ -10568,7 +10545,7 @@
         <v>0.0</v>
       </c>
       <c r="G456" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="457">
@@ -10591,7 +10568,7 @@
         <v>0.0</v>
       </c>
       <c r="G457" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="458">
@@ -10614,7 +10591,7 @@
         <v>0.0</v>
       </c>
       <c r="G458" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="459">
@@ -10637,7 +10614,7 @@
         <v>0.0</v>
       </c>
       <c r="G459" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="460">
@@ -10660,7 +10637,7 @@
         <v>0.0</v>
       </c>
       <c r="G460" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="461">
@@ -10683,7 +10660,7 @@
         <v>0.0</v>
       </c>
       <c r="G461" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="462">
@@ -10706,7 +10683,7 @@
         <v>0.0</v>
       </c>
       <c r="G462" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="463">
@@ -10729,7 +10706,7 @@
         <v>0.0</v>
       </c>
       <c r="G463" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="464">
@@ -10752,7 +10729,7 @@
         <v>0.0</v>
       </c>
       <c r="G464" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="465">
@@ -10775,7 +10752,7 @@
         <v>0.0</v>
       </c>
       <c r="G465" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="466">
@@ -10798,7 +10775,7 @@
         <v>0.0</v>
       </c>
       <c r="G466" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="467">
@@ -10821,7 +10798,7 @@
         <v>0.0</v>
       </c>
       <c r="G467" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="468">
@@ -10844,7 +10821,7 @@
         <v>0.0</v>
       </c>
       <c r="G468" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="469">
@@ -10867,7 +10844,7 @@
         <v>0.0</v>
       </c>
       <c r="G469" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="470">
@@ -10890,7 +10867,7 @@
         <v>0.0</v>
       </c>
       <c r="G470" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="471">
@@ -10913,7 +10890,7 @@
         <v>0.0</v>
       </c>
       <c r="G471" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="472">
@@ -10936,7 +10913,7 @@
         <v>0.0</v>
       </c>
       <c r="G472" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="473">
@@ -10959,7 +10936,7 @@
         <v>0.0</v>
       </c>
       <c r="G473" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="474">
@@ -10982,7 +10959,7 @@
         <v>0.0</v>
       </c>
       <c r="G474" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="475">
@@ -11005,7 +10982,7 @@
         <v>0.0</v>
       </c>
       <c r="G475" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="476">
@@ -11028,7 +11005,7 @@
         <v>0.0</v>
       </c>
       <c r="G476" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="477">
@@ -11051,7 +11028,7 @@
         <v>0.0</v>
       </c>
       <c r="G477" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="478">
@@ -11071,7 +11048,7 @@
         <v>0.0</v>
       </c>
       <c r="F478" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="G478" t="n">
         <v>0.0</v>
@@ -11094,10 +11071,10 @@
         <v>0.0</v>
       </c>
       <c r="F479" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G479" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="480">
@@ -11120,7 +11097,7 @@
         <v>0.0</v>
       </c>
       <c r="G480" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="481">
@@ -11143,7 +11120,7 @@
         <v>0.0</v>
       </c>
       <c r="G481" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="482">
@@ -11166,7 +11143,7 @@
         <v>0.0</v>
       </c>
       <c r="G482" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="483">
@@ -11189,7 +11166,7 @@
         <v>0.0</v>
       </c>
       <c r="G483" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="484">
@@ -11212,7 +11189,7 @@
         <v>0.0</v>
       </c>
       <c r="G484" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="485">
@@ -11235,7 +11212,7 @@
         <v>0.0</v>
       </c>
       <c r="G485" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="486">
@@ -11258,7 +11235,7 @@
         <v>0.0</v>
       </c>
       <c r="G486" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="487">
@@ -11278,7 +11255,7 @@
         <v>0.0</v>
       </c>
       <c r="F487" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G487" t="n">
         <v>0.0</v>
@@ -11304,7 +11281,7 @@
         <v>0.0</v>
       </c>
       <c r="G488" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="489">
@@ -11327,7 +11304,7 @@
         <v>0.0</v>
       </c>
       <c r="G489" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="490">
@@ -11350,7 +11327,7 @@
         <v>0.0</v>
       </c>
       <c r="G490" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="491">
@@ -11370,7 +11347,7 @@
         <v>0.0</v>
       </c>
       <c r="F491" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G491" t="n">
         <v>0.0</v>
@@ -11390,13 +11367,13 @@
         <v>6.13245852E13</v>
       </c>
       <c r="E492" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F492" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G492" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="493">
@@ -11413,13 +11390,13 @@
         <v>6.13246716E13</v>
       </c>
       <c r="E493" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F493" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G493" t="n">
-        <v>-1.0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="494">
@@ -11442,7 +11419,7 @@
         <v>0.0</v>
       </c>
       <c r="G494" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="495">
@@ -11465,7 +11442,7 @@
         <v>0.0</v>
       </c>
       <c r="G495" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="496">
@@ -11488,7 +11465,7 @@
         <v>0.0</v>
       </c>
       <c r="G496" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="497">
@@ -11511,7 +11488,7 @@
         <v>0.0</v>
       </c>
       <c r="G497" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="498">
@@ -11534,7 +11511,7 @@
         <v>0.0</v>
       </c>
       <c r="G498" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="499">
@@ -11557,7 +11534,7 @@
         <v>0.0</v>
       </c>
       <c r="G499" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="500">
@@ -11580,7 +11557,7 @@
         <v>0.0</v>
       </c>
       <c r="G500" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="501">
@@ -11603,7 +11580,7 @@
         <v>0.0</v>
       </c>
       <c r="G501" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="502">
@@ -11626,7 +11603,7 @@
         <v>0.0</v>
       </c>
       <c r="G502" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="503">
@@ -11649,7 +11626,7 @@
         <v>0.0</v>
       </c>
       <c r="G503" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="504">
@@ -11672,7 +11649,7 @@
         <v>0.0</v>
       </c>
       <c r="G504" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="505">
@@ -11695,7 +11672,7 @@
         <v>0.0</v>
       </c>
       <c r="G505" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="506">
@@ -11718,7 +11695,7 @@
         <v>0.0</v>
       </c>
       <c r="G506" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="507">
@@ -11741,7 +11718,7 @@
         <v>0.0</v>
       </c>
       <c r="G507" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="508">
@@ -11764,7 +11741,7 @@
         <v>0.0</v>
       </c>
       <c r="G508" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="509">
@@ -11787,7 +11764,7 @@
         <v>0.0</v>
       </c>
       <c r="G509" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="510">
@@ -11810,7 +11787,7 @@
         <v>0.0</v>
       </c>
       <c r="G510" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="511">
@@ -11833,7 +11810,7 @@
         <v>0.0</v>
       </c>
       <c r="G511" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="512">
@@ -11856,7 +11833,7 @@
         <v>0.0</v>
       </c>
       <c r="G512" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="513">
@@ -11879,7 +11856,7 @@
         <v>0.0</v>
       </c>
       <c r="G513" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="514">
@@ -11902,7 +11879,7 @@
         <v>0.0</v>
       </c>
       <c r="G514" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="515">
@@ -11925,7 +11902,7 @@
         <v>0.0</v>
       </c>
       <c r="G515" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="516">
@@ -11948,7 +11925,7 @@
         <v>0.0</v>
       </c>
       <c r="G516" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="517">
@@ -11971,7 +11948,7 @@
         <v>0.0</v>
       </c>
       <c r="G517" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="518">
@@ -11991,7 +11968,7 @@
         <v>0.0</v>
       </c>
       <c r="F518" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G518" t="n">
         <v>0.0</v>
@@ -12011,13 +11988,13 @@
         <v>6.1334262E13</v>
       </c>
       <c r="E519" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F519" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G519" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="520">
@@ -12040,7 +12017,7 @@
         <v>0.0</v>
       </c>
       <c r="G520" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="521">
@@ -12063,7 +12040,7 @@
         <v>0.0</v>
       </c>
       <c r="G521" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="522">
@@ -12086,7 +12063,7 @@
         <v>0.0</v>
       </c>
       <c r="G522" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="523">
@@ -12109,7 +12086,7 @@
         <v>0.0</v>
       </c>
       <c r="G523" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="524">
@@ -12132,7 +12109,7 @@
         <v>0.0</v>
       </c>
       <c r="G524" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="525">
@@ -12155,7 +12132,7 @@
         <v>0.0</v>
       </c>
       <c r="G525" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="526">
@@ -12178,7 +12155,7 @@
         <v>0.0</v>
       </c>
       <c r="G526" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="527">
@@ -12201,7 +12178,7 @@
         <v>0.0</v>
       </c>
       <c r="G527" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="528">
@@ -12224,7 +12201,7 @@
         <v>0.0</v>
       </c>
       <c r="G528" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="529">
@@ -12247,7 +12224,7 @@
         <v>0.0</v>
       </c>
       <c r="G529" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="530">
@@ -12270,7 +12247,7 @@
         <v>0.0</v>
       </c>
       <c r="G530" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="531">
@@ -12290,7 +12267,7 @@
         <v>0.0</v>
       </c>
       <c r="F531" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G531" t="n">
         <v>0.0</v>
@@ -12316,7 +12293,7 @@
         <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -12339,7 +12316,7 @@
         <v>0.0</v>
       </c>
       <c r="G533" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="534">
@@ -12362,7 +12339,7 @@
         <v>0.0</v>
       </c>
       <c r="G534" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="535">
@@ -12385,7 +12362,7 @@
         <v>0.0</v>
       </c>
       <c r="G535" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="536">
@@ -12408,7 +12385,7 @@
         <v>0.0</v>
       </c>
       <c r="G536" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="537">
@@ -12431,7 +12408,7 @@
         <v>0.0</v>
       </c>
       <c r="G537" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="538">
@@ -12454,7 +12431,7 @@
         <v>0.0</v>
       </c>
       <c r="G538" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="539">
@@ -12477,7 +12454,7 @@
         <v>0.0</v>
       </c>
       <c r="G539" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="540">
@@ -12500,7 +12477,7 @@
         <v>0.0</v>
       </c>
       <c r="G540" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="541">
@@ -12523,7 +12500,7 @@
         <v>0.0</v>
       </c>
       <c r="G541" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="542">
@@ -12546,7 +12523,7 @@
         <v>0.0</v>
       </c>
       <c r="G542" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="543">
@@ -12569,7 +12546,7 @@
         <v>0.0</v>
       </c>
       <c r="G543" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="544">
@@ -12592,7 +12569,7 @@
         <v>0.0</v>
       </c>
       <c r="G544" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="545">
@@ -12615,7 +12592,7 @@
         <v>0.0</v>
       </c>
       <c r="G545" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="546">
@@ -12635,7 +12612,7 @@
         <v>0.0</v>
       </c>
       <c r="F546" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="G546" t="n">
         <v>0.0</v>
@@ -12661,7 +12638,7 @@
         <v>0.0</v>
       </c>
       <c r="G547" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="548">
@@ -12684,7 +12661,7 @@
         <v>0.0</v>
       </c>
       <c r="G548" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="549">
@@ -12707,7 +12684,7 @@
         <v>0.0</v>
       </c>
       <c r="G549" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="550">
@@ -12730,7 +12707,7 @@
         <v>0.0</v>
       </c>
       <c r="G550" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="551">
@@ -12753,7 +12730,7 @@
         <v>0.0</v>
       </c>
       <c r="G551" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="552">
@@ -12776,7 +12753,7 @@
         <v>0.0</v>
       </c>
       <c r="G552" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="553">
@@ -12799,7 +12776,7 @@
         <v>0.0</v>
       </c>
       <c r="G553" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="554">
@@ -12822,7 +12799,7 @@
         <v>0.0</v>
       </c>
       <c r="G554" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="555">
@@ -12845,7 +12822,7 @@
         <v>0.0</v>
       </c>
       <c r="G555" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="556">
@@ -12868,7 +12845,7 @@
         <v>0.0</v>
       </c>
       <c r="G556" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="557">
@@ -12891,7 +12868,7 @@
         <v>0.0</v>
       </c>
       <c r="G557" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="558">
@@ -12914,7 +12891,7 @@
         <v>0.0</v>
       </c>
       <c r="G558" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="559">
@@ -12934,7 +12911,7 @@
         <v>0.0</v>
       </c>
       <c r="F559" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G559" t="n">
         <v>0.0</v>
@@ -12960,7 +12937,7 @@
         <v>0.0</v>
       </c>
       <c r="G560" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="561">
@@ -12983,7 +12960,7 @@
         <v>0.0</v>
       </c>
       <c r="G561" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="562">
@@ -13006,7 +12983,7 @@
         <v>0.0</v>
       </c>
       <c r="G562" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="563">
@@ -13029,7 +13006,7 @@
         <v>0.0</v>
       </c>
       <c r="G563" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="564">
@@ -13049,7 +13026,7 @@
         <v>0.0</v>
       </c>
       <c r="F564" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G564" t="n">
         <v>0.0</v>
@@ -13075,7 +13052,7 @@
         <v>0.0</v>
       </c>
       <c r="G565" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="566">
@@ -13098,7 +13075,7 @@
         <v>0.0</v>
       </c>
       <c r="G566" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="567">
@@ -13121,7 +13098,7 @@
         <v>0.0</v>
       </c>
       <c r="G567" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="568">
@@ -13144,7 +13121,7 @@
         <v>0.0</v>
       </c>
       <c r="G568" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="569">
@@ -13167,7 +13144,7 @@
         <v>0.0</v>
       </c>
       <c r="G569" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="570">
@@ -13190,7 +13167,7 @@
         <v>0.0</v>
       </c>
       <c r="G570" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="571">
@@ -13213,7 +13190,7 @@
         <v>0.0</v>
       </c>
       <c r="G571" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="572">
@@ -13236,7 +13213,7 @@
         <v>0.0</v>
       </c>
       <c r="G572" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="573">
@@ -13259,7 +13236,7 @@
         <v>0.0</v>
       </c>
       <c r="G573" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="574">
@@ -13279,7 +13256,7 @@
         <v>0.0</v>
       </c>
       <c r="F574" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G574" t="n">
         <v>0.0</v>
@@ -13305,7 +13282,7 @@
         <v>0.0</v>
       </c>
       <c r="G575" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="576">
@@ -13328,7 +13305,7 @@
         <v>0.0</v>
       </c>
       <c r="G576" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="577">
@@ -13351,7 +13328,7 @@
         <v>0.0</v>
       </c>
       <c r="G577" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="578">
@@ -13374,7 +13351,7 @@
         <v>0.0</v>
       </c>
       <c r="G578" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="579">
@@ -13397,7 +13374,7 @@
         <v>0.0</v>
       </c>
       <c r="G579" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="580">
@@ -13420,7 +13397,7 @@
         <v>0.0</v>
       </c>
       <c r="G580" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="581">
@@ -13443,7 +13420,7 @@
         <v>0.0</v>
       </c>
       <c r="G581" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="582">
@@ -13463,7 +13440,7 @@
         <v>0.0</v>
       </c>
       <c r="F582" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G582" t="n">
         <v>0.0</v>
@@ -13489,7 +13466,7 @@
         <v>0.0</v>
       </c>
       <c r="G583" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="584">
@@ -13512,7 +13489,7 @@
         <v>0.0</v>
       </c>
       <c r="G584" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="585">
@@ -13535,7 +13512,7 @@
         <v>0.0</v>
       </c>
       <c r="G585" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="586">
@@ -13555,7 +13532,7 @@
         <v>0.0</v>
       </c>
       <c r="F586" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G586" t="n">
         <v>0.0</v>
@@ -13581,7 +13558,7 @@
         <v>0.0</v>
       </c>
       <c r="G587" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="588">
@@ -13604,7 +13581,7 @@
         <v>0.0</v>
       </c>
       <c r="G588" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="589">
@@ -13627,7 +13604,7 @@
         <v>0.0</v>
       </c>
       <c r="G589" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
@@ -13650,7 +13627,7 @@
         <v>0.0</v>
       </c>
       <c r="G590" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="591">
@@ -13673,7 +13650,7 @@
         <v>0.0</v>
       </c>
       <c r="G591" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="592">
@@ -13696,7 +13673,7 @@
         <v>0.0</v>
       </c>
       <c r="G592" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="593">
@@ -13719,7 +13696,7 @@
         <v>0.0</v>
       </c>
       <c r="G593" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="594">
@@ -13742,7 +13719,7 @@
         <v>0.0</v>
       </c>
       <c r="G594" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="595">
@@ -13765,7 +13742,7 @@
         <v>0.0</v>
       </c>
       <c r="G595" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="596">
@@ -13788,7 +13765,7 @@
         <v>0.0</v>
       </c>
       <c r="G596" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="597">
@@ -13811,7 +13788,7 @@
         <v>0.0</v>
       </c>
       <c r="G597" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="598">
@@ -13834,7 +13811,7 @@
         <v>0.0</v>
       </c>
       <c r="G598" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="599">
@@ -13854,7 +13831,7 @@
         <v>0.0</v>
       </c>
       <c r="F599" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G599" t="n">
         <v>0.0</v>
@@ -13880,7 +13857,7 @@
         <v>0.0</v>
       </c>
       <c r="G600" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="601">
@@ -13903,7 +13880,7 @@
         <v>0.0</v>
       </c>
       <c r="G601" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="602">
@@ -13926,7 +13903,7 @@
         <v>0.0</v>
       </c>
       <c r="G602" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="603">
@@ -13949,7 +13926,7 @@
         <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -13972,7 +13949,7 @@
         <v>0.0</v>
       </c>
       <c r="G604" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="605">
@@ -13995,7 +13972,7 @@
         <v>0.0</v>
       </c>
       <c r="G605" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="606">
@@ -14015,7 +13992,7 @@
         <v>0.0</v>
       </c>
       <c r="F606" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G606" t="n">
         <v>0.0</v>
@@ -14041,7 +14018,7 @@
         <v>0.0</v>
       </c>
       <c r="G607" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="608">
@@ -14064,7 +14041,7 @@
         <v>0.0</v>
       </c>
       <c r="G608" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="609">
@@ -14087,7 +14064,7 @@
         <v>0.0</v>
       </c>
       <c r="G609" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="610">
@@ -14110,7 +14087,7 @@
         <v>0.0</v>
       </c>
       <c r="G610" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="611">
@@ -14133,7 +14110,7 @@
         <v>0.0</v>
       </c>
       <c r="G611" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="612">
@@ -14156,7 +14133,7 @@
         <v>0.0</v>
       </c>
       <c r="G612" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="613">
@@ -14179,7 +14156,7 @@
         <v>0.0</v>
       </c>
       <c r="G613" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="614">
@@ -14202,7 +14179,7 @@
         <v>0.0</v>
       </c>
       <c r="G614" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="615">
@@ -14225,7 +14202,7 @@
         <v>0.0</v>
       </c>
       <c r="G615" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="616">
@@ -14248,7 +14225,7 @@
         <v>0.0</v>
       </c>
       <c r="G616" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="617">
@@ -14268,7 +14245,7 @@
         <v>0.0</v>
       </c>
       <c r="F617" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G617" t="n">
         <v>0.0</v>
@@ -14291,10 +14268,10 @@
         <v>0.0</v>
       </c>
       <c r="F618" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G618" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="619">
@@ -14317,7 +14294,7 @@
         <v>0.0</v>
       </c>
       <c r="G619" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="620">
@@ -14340,7 +14317,7 @@
         <v>0.0</v>
       </c>
       <c r="G620" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="621">
@@ -14363,7 +14340,7 @@
         <v>0.0</v>
       </c>
       <c r="G621" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="622">
@@ -14386,7 +14363,7 @@
         <v>0.0</v>
       </c>
       <c r="G622" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="623">
@@ -14409,7 +14386,7 @@
         <v>0.0</v>
       </c>
       <c r="G623" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="624">
@@ -14432,7 +14409,7 @@
         <v>0.0</v>
       </c>
       <c r="G624" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="625">
@@ -14455,7 +14432,7 @@
         <v>0.0</v>
       </c>
       <c r="G625" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="626">
@@ -14475,7 +14452,7 @@
         <v>0.0</v>
       </c>
       <c r="F626" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G626" t="n">
         <v>0.0</v>
@@ -14501,7 +14478,7 @@
         <v>0.0</v>
       </c>
       <c r="G627" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="628">
@@ -14524,7 +14501,7 @@
         <v>0.0</v>
       </c>
       <c r="G628" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="629">
@@ -14547,7 +14524,7 @@
         <v>0.0</v>
       </c>
       <c r="G629" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="630">
@@ -14570,7 +14547,7 @@
         <v>0.0</v>
       </c>
       <c r="G630" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="631">
@@ -14593,7 +14570,7 @@
         <v>0.0</v>
       </c>
       <c r="G631" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="632">
@@ -14616,7 +14593,7 @@
         <v>0.0</v>
       </c>
       <c r="G632" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="633">
@@ -14639,7 +14616,7 @@
         <v>0.0</v>
       </c>
       <c r="G633" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="634">
@@ -14662,7 +14639,7 @@
         <v>0.0</v>
       </c>
       <c r="G634" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="635">
@@ -14685,7 +14662,7 @@
         <v>0.0</v>
       </c>
       <c r="G635" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="636">
@@ -14708,7 +14685,7 @@
         <v>0.0</v>
       </c>
       <c r="G636" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="637">
@@ -14731,7 +14708,7 @@
         <v>0.0</v>
       </c>
       <c r="G637" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="638">
@@ -14754,7 +14731,7 @@
         <v>0.0</v>
       </c>
       <c r="G638" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="639">
@@ -14777,7 +14754,7 @@
         <v>0.0</v>
       </c>
       <c r="G639" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="640">
@@ -14800,7 +14777,7 @@
         <v>0.0</v>
       </c>
       <c r="G640" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="641">
@@ -14823,7 +14800,7 @@
         <v>0.0</v>
       </c>
       <c r="G641" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="642">
@@ -14846,7 +14823,7 @@
         <v>0.0</v>
       </c>
       <c r="G642" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="643">
@@ -14869,7 +14846,7 @@
         <v>0.0</v>
       </c>
       <c r="G643" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="644">
@@ -14892,7 +14869,7 @@
         <v>0.0</v>
       </c>
       <c r="G644" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="645">
@@ -14915,7 +14892,7 @@
         <v>0.0</v>
       </c>
       <c r="G645" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="646">
@@ -14938,7 +14915,7 @@
         <v>0.0</v>
       </c>
       <c r="G646" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="647">
@@ -14961,7 +14938,7 @@
         <v>0.0</v>
       </c>
       <c r="G647" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="648">
@@ -14984,7 +14961,7 @@
         <v>0.0</v>
       </c>
       <c r="G648" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="649">
@@ -15007,7 +14984,7 @@
         <v>0.0</v>
       </c>
       <c r="G649" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="650">
@@ -15030,7 +15007,7 @@
         <v>0.0</v>
       </c>
       <c r="G650" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="651">
@@ -15050,7 +15027,7 @@
         <v>0.0</v>
       </c>
       <c r="F651" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G651" t="n">
         <v>0.0</v>
@@ -15070,13 +15047,13 @@
         <v>6.1379712E13</v>
       </c>
       <c r="E652" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F652" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G652" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="653">
@@ -15096,7 +15073,7 @@
         <v>0.0</v>
       </c>
       <c r="F653" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G653" t="n">
         <v>0.0</v>
@@ -15122,7 +15099,7 @@
         <v>0.0</v>
       </c>
       <c r="G654" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="655">
@@ -15145,7 +15122,7 @@
         <v>0.0</v>
       </c>
       <c r="G655" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="656">
@@ -15168,7 +15145,7 @@
         <v>0.0</v>
       </c>
       <c r="G656" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="657">
@@ -15191,7 +15168,7 @@
         <v>0.0</v>
       </c>
       <c r="G657" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="658">
@@ -15211,7 +15188,7 @@
         <v>0.0</v>
       </c>
       <c r="F658" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G658" t="n">
         <v>0.0</v>
@@ -15237,7 +15214,7 @@
         <v>0.0</v>
       </c>
       <c r="G659" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="660">
@@ -15260,7 +15237,7 @@
         <v>0.0</v>
       </c>
       <c r="G660" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="661">
@@ -15283,7 +15260,7 @@
         <v>0.0</v>
       </c>
       <c r="G661" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="662">
@@ -15306,7 +15283,7 @@
         <v>0.0</v>
       </c>
       <c r="G662" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="663">
@@ -15329,7 +15306,7 @@
         <v>0.0</v>
       </c>
       <c r="G663" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="664">
@@ -15352,7 +15329,7 @@
         <v>0.0</v>
       </c>
       <c r="G664" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="665">
@@ -15375,7 +15352,7 @@
         <v>0.0</v>
       </c>
       <c r="G665" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="666">
@@ -15398,7 +15375,7 @@
         <v>0.0</v>
       </c>
       <c r="G666" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="667">
@@ -15421,7 +15398,7 @@
         <v>0.0</v>
       </c>
       <c r="G667" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="668">
@@ -15444,7 +15421,7 @@
         <v>0.0</v>
       </c>
       <c r="G668" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="669">
@@ -15467,7 +15444,7 @@
         <v>0.0</v>
       </c>
       <c r="G669" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="670">
@@ -15487,7 +15464,7 @@
         <v>0.0</v>
       </c>
       <c r="F670" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G670" t="n">
         <v>0.0</v>
@@ -15513,7 +15490,7 @@
         <v>0.0</v>
       </c>
       <c r="G671" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="672">
@@ -15536,7 +15513,7 @@
         <v>0.0</v>
       </c>
       <c r="G672" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="673">
@@ -15559,7 +15536,7 @@
         <v>0.0</v>
       </c>
       <c r="G673" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="674">
@@ -15582,7 +15559,7 @@
         <v>0.0</v>
       </c>
       <c r="G674" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="675">
@@ -15605,7 +15582,7 @@
         <v>0.0</v>
       </c>
       <c r="G675" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="676">
@@ -15628,7 +15605,7 @@
         <v>0.0</v>
       </c>
       <c r="G676" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="677">
@@ -15651,7 +15628,7 @@
         <v>0.0</v>
       </c>
       <c r="G677" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="678">
@@ -15674,7 +15651,7 @@
         <v>0.0</v>
       </c>
       <c r="G678" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="679">
@@ -15697,7 +15674,7 @@
         <v>0.0</v>
       </c>
       <c r="G679" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="680">
@@ -15720,7 +15697,7 @@
         <v>0.0</v>
       </c>
       <c r="G680" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="681">
@@ -15743,7 +15720,7 @@
         <v>0.0</v>
       </c>
       <c r="G681" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="682">
@@ -15766,7 +15743,7 @@
         <v>0.0</v>
       </c>
       <c r="G682" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="683">
@@ -15789,7 +15766,7 @@
         <v>0.0</v>
       </c>
       <c r="G683" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="684">
@@ -15812,7 +15789,7 @@
         <v>0.0</v>
       </c>
       <c r="G684" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="685">
@@ -15835,7 +15812,7 @@
         <v>0.0</v>
       </c>
       <c r="G685" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="686">
@@ -15858,7 +15835,7 @@
         <v>0.0</v>
       </c>
       <c r="G686" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="687">
@@ -15881,7 +15858,7 @@
         <v>0.0</v>
       </c>
       <c r="G687" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="688">
@@ -15904,7 +15881,7 @@
         <v>0.0</v>
       </c>
       <c r="G688" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="689">
@@ -15924,7 +15901,7 @@
         <v>0.0</v>
       </c>
       <c r="F689" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G689" t="n">
         <v>0.0</v>
@@ -15950,7 +15927,7 @@
         <v>0.0</v>
       </c>
       <c r="G690" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="691">
@@ -15973,7 +15950,7 @@
         <v>0.0</v>
       </c>
       <c r="G691" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="692">
@@ -15996,7 +15973,7 @@
         <v>0.0</v>
       </c>
       <c r="G692" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="693">
@@ -16019,7 +15996,7 @@
         <v>0.0</v>
       </c>
       <c r="G693" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="694">
@@ -16042,7 +16019,7 @@
         <v>0.0</v>
       </c>
       <c r="G694" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="695">
@@ -16065,7 +16042,7 @@
         <v>0.0</v>
       </c>
       <c r="G695" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="696">
@@ -16088,7 +16065,7 @@
         <v>0.0</v>
       </c>
       <c r="G696" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="697">
@@ -16111,7 +16088,7 @@
         <v>0.0</v>
       </c>
       <c r="G697" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="698">
@@ -16134,7 +16111,7 @@
         <v>0.0</v>
       </c>
       <c r="G698" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="699">
@@ -16157,7 +16134,7 @@
         <v>0.0</v>
       </c>
       <c r="G699" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="700">
@@ -16180,7 +16157,7 @@
         <v>0.0</v>
       </c>
       <c r="G700" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="701">
@@ -16203,7 +16180,7 @@
         <v>0.0</v>
       </c>
       <c r="G701" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="702">
@@ -16223,7 +16200,7 @@
         <v>0.0</v>
       </c>
       <c r="F702" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G702" t="n">
         <v>0.0</v>
@@ -16246,10 +16223,10 @@
         <v>0.0</v>
       </c>
       <c r="F703" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G703" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="704">
@@ -16272,7 +16249,7 @@
         <v>0.0</v>
       </c>
       <c r="G704" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="705">
@@ -16295,7 +16272,7 @@
         <v>0.0</v>
       </c>
       <c r="G705" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="706">
@@ -16318,7 +16295,7 @@
         <v>0.0</v>
       </c>
       <c r="G706" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="707">
@@ -16341,7 +16318,7 @@
         <v>0.0</v>
       </c>
       <c r="G707" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="708">
@@ -16364,7 +16341,7 @@
         <v>0.0</v>
       </c>
       <c r="G708" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="709">
@@ -16387,7 +16364,7 @@
         <v>0.0</v>
       </c>
       <c r="G709" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="710">
@@ -16410,7 +16387,7 @@
         <v>0.0</v>
       </c>
       <c r="G710" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="711">
@@ -16433,7 +16410,7 @@
         <v>0.0</v>
       </c>
       <c r="G711" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="712">
@@ -16456,7 +16433,7 @@
         <v>0.0</v>
       </c>
       <c r="G712" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="713">
@@ -16479,7 +16456,7 @@
         <v>0.0</v>
       </c>
       <c r="G713" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="714">
@@ -16502,7 +16479,7 @@
         <v>0.0</v>
       </c>
       <c r="G714" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="715">
@@ -16525,7 +16502,7 @@
         <v>0.0</v>
       </c>
       <c r="G715" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="716">
@@ -16548,7 +16525,7 @@
         <v>0.0</v>
       </c>
       <c r="G716" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
